--- a/EM Analyzer/bin/Debug/Hanaka_Koka_AOI.xlsx
+++ b/EM Analyzer/bin/Debug/Hanaka_Koka_AOI.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myeari\Google Drive\מחקר\Notes\Eye movments\Computational data analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\EM Analyzer\EM Analyzer\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2437E82B-F203-4A66-93E7-B0A0D0D6E652}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,11 +148,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -461,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
